--- a/ssp_modeling/transformations/templates/calibrated/uganda/model_input_variables_uganda_ip_calibrated.xlsx
+++ b/ssp_modeling/transformations/templates/calibrated/uganda/model_input_variables_uganda_ip_calibrated.xlsx
@@ -18810,7 +18810,7 @@
         <v>1.957446808510638</v>
       </c>
       <c r="U97">
-        <v>1.936170212765957</v>
+        <v>1.936170212765958</v>
       </c>
       <c r="V97">
         <v>1.914893617021277</v>
@@ -19356,7 +19356,7 @@
         <v>1.957446808510638</v>
       </c>
       <c r="U100">
-        <v>1.936170212765957</v>
+        <v>1.936170212765958</v>
       </c>
       <c r="V100">
         <v>1.914893617021277</v>
@@ -19538,7 +19538,7 @@
         <v>1.957446808510638</v>
       </c>
       <c r="U101">
-        <v>1.936170212765957</v>
+        <v>1.936170212765958</v>
       </c>
       <c r="V101">
         <v>1.914893617021277</v>
@@ -20239,7 +20239,7 @@
         <v>4.459000000000045</v>
       </c>
       <c r="L105">
-        <v>2.222565055762073</v>
+        <v>2.222565055762074</v>
       </c>
       <c r="M105">
         <v>0.4966290598290614</v>
@@ -25711,7 +25711,7 @@
         <v>6978.867111</v>
       </c>
       <c r="K135">
-        <v>7962.887373650999</v>
+        <v>7962.887373651</v>
       </c>
       <c r="L135">
         <v>9085.654493335791</v>
@@ -25911,151 +25911,151 @@
         <v>188156.4766066211</v>
       </c>
       <c r="Q136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="R136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="S136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="T136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="U136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="V136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="W136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="X136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="Y136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="Z136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="AA136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="AB136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="AC136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="AD136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="AE136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="AF136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="AG136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="AH136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="AI136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="AJ136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="AK136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="AL136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="AM136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="AN136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="AO136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="AP136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="AQ136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="AR136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="AS136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="AT136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="AU136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="AV136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="AW136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="AX136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="AY136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="AZ136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="BA136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="BB136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="BC136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="BD136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="BE136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="BF136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="BG136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="BH136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="BI136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="BJ136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="BK136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="BL136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
       <c r="BM136">
-        <v>190602.5108025072</v>
+        <v>190602.5108025071</v>
       </c>
     </row>
     <row r="137" spans="1:65">
@@ -26454,7 +26454,7 @@
         <v>210938.4416764846</v>
       </c>
       <c r="P139">
-        <v>217266.5949267792</v>
+        <v>217266.5949267791</v>
       </c>
       <c r="Q139">
         <v>219004.7276861934</v>
